--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -152,13 +152,13 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>（越小</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>为佳</a:t>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Lower is better</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
@@ -365,11 +365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="266150272"/>
-        <c:axId val="266151808"/>
+        <c:axId val="209151872"/>
+        <c:axId val="209153408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266150272"/>
+        <c:axId val="209151872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,7 +378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266151808"/>
+        <c:crossAx val="209153408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -386,7 +386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266151808"/>
+        <c:axId val="209153408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,7 +397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266150272"/>
+        <c:crossAx val="209151872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -446,13 +446,13 @@
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>性能基准测试（越小</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>为佳</a:t>
+              <a:t>性能基准测试（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Lower is better</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
@@ -617,11 +617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44731392"/>
-        <c:axId val="197743360"/>
+        <c:axId val="209498880"/>
+        <c:axId val="209500416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44731392"/>
+        <c:axId val="209498880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197743360"/>
+        <c:crossAx val="209500416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -638,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197743360"/>
+        <c:axId val="209500416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44731392"/>
+        <c:crossAx val="209498880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -698,13 +698,13 @@
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>性能基准测试（越小</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>为佳</a:t>
+              <a:t>性能基准测试（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Lower is better</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
@@ -857,11 +857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209201408"/>
-        <c:axId val="209207296"/>
+        <c:axId val="209517952"/>
+        <c:axId val="209347712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209201408"/>
+        <c:axId val="209517952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209207296"/>
+        <c:crossAx val="209347712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -878,7 +878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209207296"/>
+        <c:axId val="209347712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209201408"/>
+        <c:crossAx val="209517952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -938,13 +938,13 @@
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>性能基准测试（越小</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>为佳</a:t>
+              <a:t>性能基准测试（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Lower is better</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
@@ -1097,11 +1097,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219963776"/>
-        <c:axId val="219965312"/>
+        <c:axId val="209422592"/>
+        <c:axId val="209424384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219963776"/>
+        <c:axId val="209422592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219965312"/>
+        <c:crossAx val="209424384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1118,7 +1118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219965312"/>
+        <c:axId val="209424384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219963776"/>
+        <c:crossAx val="209422592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,13 +1178,13 @@
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>性能基准测试（越小</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>为佳</a:t>
+              <a:t>性能基准测试（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Lower is better</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
@@ -1349,11 +1349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220589056"/>
-        <c:axId val="221065600"/>
+        <c:axId val="209860864"/>
+        <c:axId val="209862656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220589056"/>
+        <c:axId val="209860864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221065600"/>
+        <c:crossAx val="209862656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1370,7 +1370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221065600"/>
+        <c:axId val="209862656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220589056"/>
+        <c:crossAx val="209860864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2079,7 +2079,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
